--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="76">
   <si>
     <t>Added</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>BookBlock.fill -&gt; ellenőrizni, h jók-e az 'if'-ek</t>
+  </si>
+  <si>
+    <t>Megoldottam inkább csalással</t>
+  </si>
+  <si>
+    <t>Search page: a textbox végén legyen nagyító is</t>
   </si>
 </sst>
 </file>
@@ -611,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,25 +1496,29 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>42044</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="D43" s="4">
+        <v>42056</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
+      <c r="J43" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -1530,27 +1540,33 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1">
-        <v>42044</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
+      <c r="C45" s="4">
+        <v>42056</v>
+      </c>
+      <c r="D45" s="4">
+        <v>42056</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -1565,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -1580,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -1595,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -1610,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -1625,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -1640,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -1655,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -1670,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -1685,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1700,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -1715,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="1">
-        <v>42044</v>
+        <v>42056</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
   <si>
     <t>Added</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Search page: a textbox végén legyen nagyító is</t>
+  </si>
+  <si>
+    <t>Android SearchPage: jó-e h a ctx menüben csak 1 vmi van</t>
+  </si>
+  <si>
+    <t>Android BookBlock: PG típus, ár-kategória sávja kicsúszhat</t>
   </si>
 </sst>
 </file>
@@ -617,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,42 +1567,54 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="4">
         <v>42056</v>
       </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="D46" s="4">
+        <v>42057</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="1">
-        <v>42056</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
+      <c r="C47" s="4">
+        <v>42057</v>
+      </c>
+      <c r="D47" s="4">
+        <v>42057</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -1611,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -1626,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -1641,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -1656,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -1671,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -1686,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -1701,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1716,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -1731,7 +1749,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="1">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
   <si>
     <t>Added</t>
   </si>
@@ -248,6 +248,21 @@
   </si>
   <si>
     <t>Android BookBlock: PG típus, ár-kategória sávja kicsúszhat</t>
+  </si>
+  <si>
+    <t>Android: konstansokat kiszervezni</t>
+  </si>
+  <si>
+    <t>Android: a könyv ikon felül vigyen a kezdőoldalra</t>
+  </si>
+  <si>
+    <t>Android: jó-e a back gomb a usersProduct oldalon</t>
+  </si>
+  <si>
+    <t>Egyszer volt, hogy a bookBlock applyData -ban a getActivity null-t adott vissza</t>
+  </si>
+  <si>
+    <t>Van erre comment a kódban, nem kell h itt is lássam</t>
   </si>
 </sst>
 </file>
@@ -623,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,25 +1541,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>42045</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="D44" s="4">
+        <v>42061</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
+      <c r="J44" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
@@ -1614,9 +1633,14 @@
         <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>42057</v>
-      </c>
-      <c r="H48" s="12"/>
+        <v>42061</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -1629,9 +1653,14 @@
         <v>7</v>
       </c>
       <c r="C49" s="1">
-        <v>42057</v>
-      </c>
-      <c r="H49" s="12"/>
+        <v>42061</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
@@ -1644,9 +1673,14 @@
         <v>7</v>
       </c>
       <c r="C50" s="1">
-        <v>42057</v>
-      </c>
-      <c r="H50" s="12"/>
+        <v>42061</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -1659,10 +1693,14 @@
         <v>7</v>
       </c>
       <c r="C51" s="1">
-        <v>42057</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+        <v>42061</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
@@ -1674,7 +1712,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="1">
-        <v>42057</v>
+        <v>42061</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -1689,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="1">
-        <v>42057</v>
+        <v>42061</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -1704,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>42057</v>
+        <v>42061</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -1719,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>42057</v>
+        <v>42061</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1734,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="1">
-        <v>42057</v>
+        <v>42061</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -1749,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="1">
-        <v>42057</v>
+        <v>42061</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -1760,6 +1798,12 @@
       <c r="N57" s="12"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1">
+        <v>42061</v>
+      </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
@@ -1769,6 +1813,12 @@
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>42061</v>
+      </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
@@ -1778,6 +1828,12 @@
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>42061</v>
+      </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
@@ -1787,6 +1843,12 @@
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1">
+        <v>42061</v>
+      </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -1796,6 +1858,12 @@
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1">
+        <v>42061</v>
+      </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
@@ -1805,6 +1873,12 @@
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42061</v>
+      </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
@@ -1814,6 +1888,12 @@
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1">
+        <v>42061</v>
+      </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
@@ -1822,7 +1902,13 @@
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42061</v>
+      </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
@@ -1831,7 +1917,7 @@
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
     </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
@@ -1840,7 +1926,7 @@
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
     </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -1849,7 +1935,7 @@
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
@@ -1858,7 +1944,7 @@
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
@@ -1867,7 +1953,7 @@
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
@@ -1876,7 +1962,7 @@
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
@@ -1885,7 +1971,7 @@
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
     </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
@@ -1894,7 +1980,7 @@
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
     </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -1903,7 +1989,7 @@
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -1912,7 +1998,7 @@
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
@@ -1921,7 +2007,7 @@
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
@@ -1930,7 +2016,7 @@
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
@@ -1939,7 +2025,7 @@
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
@@ -1948,7 +2034,7 @@
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
@@ -1957,7 +2043,7 @@
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
     </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
   <si>
     <t>Added</t>
   </si>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,25 +1628,26 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="4">
         <v>42061</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="D48" s="4">
+        <v>42062</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
@@ -1712,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -1727,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -1742,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -1757,7 +1758,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1772,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -1787,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -1802,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -1817,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="C59" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -1832,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -1847,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -1862,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -1877,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -1892,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -1907,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -639,7 +639,7 @@
   <dimension ref="A2:S974"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="45" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" s="4">
         <v>42056</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="48" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" s="4">
         <v>42061</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
         <v>42061</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1">
         <v>42061</v>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="87">
   <si>
     <t>Added</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>Van erre comment a kódban, nem kell h itt is lássam</t>
+  </si>
+  <si>
+    <t>Style-osítani az android view-kat</t>
+  </si>
+  <si>
+    <t>WP8: kijelentkezéskor a userID-t nem töröljük (StaticData-ból). Ez valszeg csak véletlen…</t>
+  </si>
+  <si>
+    <t>Https…</t>
+  </si>
+  <si>
+    <t>Inkább csak feljegyzem, de a diplomához nem kell megcsinálni. Jelszavak ne http-n, és ne get-ben :D</t>
   </si>
 </sst>
 </file>
@@ -638,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,12 +1722,17 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>42062</v>
-      </c>
-      <c r="H52" s="12"/>
+        <v>42063</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
@@ -1725,12 +1742,17 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>42062</v>
-      </c>
-      <c r="H53" s="12"/>
+        <v>42063</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
@@ -1740,14 +1762,27 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C54" s="1">
-        <v>42062</v>
-      </c>
-      <c r="H54" s="12"/>
+        <v>42063</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42063</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
@@ -1758,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1773,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -1788,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -1803,7 +1838,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -1818,7 +1853,7 @@
         <v>7</v>
       </c>
       <c r="C59" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -1833,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -1848,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -1863,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -1878,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -1893,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -1908,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="1">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="93">
   <si>
     <t>Added</t>
   </si>
@@ -275,6 +275,24 @@
   </si>
   <si>
     <t>Inkább csak feljegyzem, de a diplomához nem kell megcsinálni. Jelszavak ne http-n, és ne get-ben :D</t>
+  </si>
+  <si>
+    <t>Login, register: csak 1 lehessen belőlük (+ talán más activity-kre is igaz ez)</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Android: Miért nem törli a 2. onCreate-nél az adatokat? azaz miért nem írja felül?</t>
+  </si>
+  <si>
+    <t>onOffControls android-ra is?</t>
+  </si>
+  <si>
+    <t>timeOut test</t>
+  </si>
+  <si>
+    <t>timeOut után isAuth legyen false (+WP-n így van?)</t>
   </si>
 </sst>
 </file>
@@ -650,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,42 +1778,43 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="4">
         <v>42063</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="4">
         <v>42063</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
-        <v>42063</v>
-      </c>
-      <c r="H55" s="12"/>
+        <v>42064</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
@@ -1805,13 +1824,17 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1">
-        <v>42063</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+        <v>42064</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
@@ -1820,12 +1843,17 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
-        <v>42063</v>
-      </c>
-      <c r="H57" s="12"/>
+        <v>42064</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -1835,12 +1863,17 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1">
-        <v>42063</v>
-      </c>
-      <c r="H58" s="12"/>
+        <v>42064</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
@@ -1850,12 +1883,17 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1">
-        <v>42063</v>
-      </c>
-      <c r="H59" s="12"/>
+        <v>42064</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
@@ -1868,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="1">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -1883,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="1">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -1898,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="1">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -1913,10 +1951,9 @@
         <v>7</v>
       </c>
       <c r="C63" s="1">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -1928,10 +1965,9 @@
         <v>7</v>
       </c>
       <c r="C64" s="1">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
@@ -1943,10 +1979,9 @@
         <v>7</v>
       </c>
       <c r="C65" s="1">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
   <si>
     <t>Added</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>timeOut után isAuth legyen false (+WP-n így van?)</t>
+  </si>
+  <si>
+    <t>Átállítottam a WcfHost-ban a Date sorosítás formátumát json-ben Ms-ről Iso-ra. Tesztelni a meglévő részeket</t>
+  </si>
+  <si>
+    <t>Sajnos a WCF úgy tűnik, nem használja, ha felülírom a JsonConvert.DefaultSettings -t. A neten is azt találtam, h inkább nyugodjak bele, és kliens oldalon írjak parszert :D</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
   <dimension ref="A2:S974"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,27 +1907,36 @@
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="1">
-        <v>42064</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
+      <c r="C60" s="4">
+        <v>42069</v>
+      </c>
+      <c r="D60" s="4">
+        <v>42069</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1">
-        <v>42064</v>
+        <v>42069</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -1936,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="1">
-        <v>42064</v>
+        <v>42069</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -1951,7 +1966,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="1">
-        <v>42064</v>
+        <v>42069</v>
       </c>
       <c r="H63" s="12"/>
       <c r="J63" s="12"/>
@@ -1965,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="1">
-        <v>42064</v>
+        <v>42069</v>
       </c>
       <c r="H64" s="12"/>
       <c r="J64" s="12"/>
@@ -1979,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="1">
-        <v>42064</v>
+        <v>42069</v>
       </c>
       <c r="H65" s="12"/>
       <c r="J65" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="106">
   <si>
     <t>Added</t>
   </si>
@@ -299,6 +299,39 @@
   </si>
   <si>
     <t>Sajnos a WCF úgy tűnik, nem használja, ha felülírom a JsonConvert.DefaultSettings -t. A neten is azt találtam, h inkább nyugodjak bele, és kliens oldalon írjak parszert :D</t>
+  </si>
+  <si>
+    <t>UserOrder.java: int sumVendorFee is never used --&gt; Also on WP!</t>
+  </si>
+  <si>
+    <t>Android: minden string legyen resource</t>
+  </si>
+  <si>
+    <t>Majd ha egyszer többnyelvűsítenénk…</t>
+  </si>
+  <si>
+    <t>Nem szürkül be (WP+[Android id valszeg]) egy kosár amikor leadjuk a rendelést</t>
+  </si>
+  <si>
+    <t>Egy bat fájl segítségével generálhatók</t>
+  </si>
+  <si>
+    <t>BUG-1</t>
+  </si>
+  <si>
+    <t>Lassan a végére érek, és megvoltam nélküle</t>
+  </si>
+  <si>
+    <t>Nem észrevehető…</t>
+  </si>
+  <si>
+    <t>WP+Android: cache-ek frissítése? (pl ha más oldalon rakja kosárba, akkor a főoldalon is frissülne, stb…)</t>
+  </si>
+  <si>
+    <t>Transactoin: jó teszt adatok, ahol van mindenből minden féle…</t>
+  </si>
+  <si>
+    <t>Mock adatok: nem egészen jó így, ahogy van; mert a Transaction adatoknál 6 helyett 3 fájl lesz csak…</t>
   </si>
 </sst>
 </file>
@@ -337,12 +370,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -357,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -371,6 +410,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -674,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,17 +1252,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
+    <row r="27" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14">
         <v>42029</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="14"/>
+      <c r="H27" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1320,25 +1368,26 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>42037</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="D33" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -1481,25 +1530,29 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>42042</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="D40" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
+      <c r="J40" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -1705,84 +1758,90 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="4">
         <v>42061</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="D50" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="G50" s="4"/>
+      <c r="H50" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="51" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="14">
         <v>42061</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="G51" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+    </row>
+    <row r="52" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="18">
         <v>42063</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18" t="s">
         <v>2</v>
       </c>
+      <c r="G52" s="18"/>
       <c r="H52" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="53" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="14">
         <v>42063</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="12" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
     </row>
     <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
@@ -1847,25 +1906,29 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="4">
         <v>42064</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="D57" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="G57" s="4"/>
+      <c r="H57" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
+      <c r="J57" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
@@ -1931,80 +1994,133 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1">
-        <v>42069</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1">
-        <v>42069</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1">
-        <v>42069</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="1">
-        <v>42069</v>
-      </c>
-      <c r="H64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="1">
-        <v>42069</v>
-      </c>
-      <c r="H65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
+    <row r="61" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="4">
+        <v>42070</v>
+      </c>
+      <c r="D61" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="4">
+        <v>42070</v>
+      </c>
+      <c r="D62" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="4">
+        <v>42070</v>
+      </c>
+      <c r="D63" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="4">
+        <v>42070</v>
+      </c>
+      <c r="D64" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="4">
+        <v>42042</v>
+      </c>
+      <c r="D65" s="4">
+        <v>42070</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H66" s="12"/>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>42070</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
@@ -2013,7 +2129,18 @@
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H67" s="12"/>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>42070</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
@@ -2022,6 +2149,12 @@
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42070</v>
+      </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
@@ -2031,6 +2164,12 @@
       <c r="N68" s="12"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1">
+        <v>42070</v>
+      </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
@@ -2040,6 +2179,12 @@
       <c r="N69" s="12"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
+        <v>42070</v>
+      </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
@@ -2049,6 +2194,12 @@
       <c r="N70" s="12"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>42070</v>
+      </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
@@ -2058,6 +2209,12 @@
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>42070</v>
+      </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
@@ -2067,6 +2224,12 @@
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42070</v>
+      </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -2076,6 +2239,12 @@
       <c r="N73" s="12"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>42070</v>
+      </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -2085,6 +2254,12 @@
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1">
+        <v>42070</v>
+      </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
@@ -2094,6 +2269,12 @@
       <c r="N75" s="12"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1">
+        <v>42070</v>
+      </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="114">
   <si>
     <t>Added</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Android: ne küldjön már kérést minden elforgatásnál! (MainActivity)</t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>BookBlock.fill -&gt; ellenőrizni, h jók-e az 'if'-ek</t>
   </si>
   <si>
@@ -332,6 +329,33 @@
   </si>
   <si>
     <t>Mock adatok: nem egészen jó így, ahogy van; mert a Transaction adatoknál 6 helyett 3 fájl lesz csak…</t>
+  </si>
+  <si>
+    <t>WP: UserOrder ctx menüben nem töri több sorba a hosszúkat (pl Taegen Evenfall könyvei)</t>
+  </si>
+  <si>
+    <t>Bejelentkezés, Regisztráció: talán mégiscsak a skipHistory lenne jobb, mert ha váltogatja a user ezeket pl így: B-R-B, akkor bejelentkezés után a Regisztáció oldalon fog kikötni, utána a Back hatására megint bejelentkezés…</t>
+  </si>
+  <si>
+    <t>Talán majd máskor, ha több időm lesz ilyesmire...</t>
+  </si>
+  <si>
+    <t>Vannak már fejlemények… Szerintem nem lesz vele gond</t>
+  </si>
+  <si>
+    <t>(Postponed)</t>
+  </si>
+  <si>
+    <t>SingleTop lettek ezek. A "csak egy lehessen belőlük" macerásabb… Viszont a Search az olyan</t>
+  </si>
+  <si>
+    <t>WP+Android: session timout rendes lekezelése…</t>
+  </si>
+  <si>
+    <t>WP+Android: session timeout -nál ne "Hiba a kapcsolatban" legyen az üzenet, hanem "A munkamenet lejárt. Jelentkezz be újra" v ilyesmi</t>
+  </si>
+  <si>
+    <t>WP+Android: Csere ajánlva: vannak gombok, h elfogad/elutasít az eladói oldalon is (nem kéne, h legyenek)</t>
   </si>
 </sst>
 </file>
@@ -396,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -414,8 +438,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -719,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +750,7 @@
     <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1109,20 +1131,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="14">
         <v>42022</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1252,20 +1277,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="7">
         <v>42029</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
+      <c r="D27" s="7">
+        <v>42071</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1314,59 +1343,68 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="14">
         <v>42035</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="14">
         <v>42035</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="14"/>
+      <c r="H31" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="14">
         <v>42036</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="G32" s="14"/>
+      <c r="H32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -1417,25 +1455,28 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="14">
         <v>42041</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="G35" s="14"/>
+      <c r="H35" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -1470,65 +1511,76 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="14">
         <v>42041</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="G37" s="14"/>
+      <c r="H37" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>42042</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="D38" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="J38" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="4">
         <v>42042</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
+      <c r="J39" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -1551,7 +1603,7 @@
         <v>67</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -1586,25 +1638,28 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="14">
         <v>42044</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="G42" s="14"/>
+      <c r="H42" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -1627,7 +1682,7 @@
         <v>70</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1644,14 +1699,14 @@
         <v>40</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1672,7 +1727,7 @@
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1689,11 +1744,11 @@
         <v>1</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1714,7 +1769,7 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1735,30 +1790,31 @@
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4">
+        <v>42061</v>
+      </c>
+      <c r="D49" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1">
-        <v>42061</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1772,78 +1828,83 @@
         <v>1</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7">
+        <v>42061</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="14">
-        <v>42061</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
+      <c r="J51" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="4">
+        <v>42063</v>
+      </c>
+      <c r="D52" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7">
+        <v>42063</v>
+      </c>
+      <c r="D53" s="7">
+        <v>42071</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-    </row>
-    <row r="52" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="18">
-        <v>42063</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="12" t="s">
+      <c r="G53" s="7"/>
+      <c r="H53" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="14">
-        <v>42063</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-    </row>
-    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>29</v>
       </c>
@@ -1861,52 +1922,56 @@
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J54" s="5" t="s">
+    </row>
+    <row r="55" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>42064</v>
+      </c>
+      <c r="D55" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="J55" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C56" s="4">
         <v>42064</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="12" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1">
-        <v>42064</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="4"/>
+      <c r="H56" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
@@ -1920,57 +1985,55 @@
         <v>40</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="4">
+        <v>42064</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="59" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C59" s="4">
         <v>42064</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="12" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1">
-        <v>42064</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>7</v>
       </c>
@@ -1988,13 +2051,13 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J60" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>5</v>
       </c>
@@ -2012,13 +2075,13 @@
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>29</v>
       </c>
@@ -2036,13 +2099,13 @@
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J62" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>5</v>
       </c>
@@ -2060,10 +2123,10 @@
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2144,7 @@
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2105,130 +2168,168 @@
         <v>67</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="14">
         <v>42070</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="12" t="s">
+      <c r="G66" s="14"/>
+      <c r="H66" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+    </row>
+    <row r="67" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="4">
+        <v>42070</v>
+      </c>
+      <c r="D67" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="68" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="1">
-        <v>42070</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="C68" s="14">
+        <v>42071</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="G68" s="14"/>
+      <c r="H68" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1">
-        <v>42070</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1">
-        <v>42070</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1">
-        <v>42070</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1">
-        <v>42070</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="1">
-        <v>42070</v>
-      </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+    </row>
+    <row r="69" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="14">
+        <v>42071</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+    </row>
+    <row r="70" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="4">
+        <v>42071</v>
+      </c>
+      <c r="D70" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="4">
+        <v>42071</v>
+      </c>
+      <c r="D71" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="4">
+        <v>42071</v>
+      </c>
+      <c r="D72" s="4">
+        <v>42071</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>42070</v>
+        <v>42071</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -2243,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>42070</v>
+        <v>42071</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -2258,7 +2359,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="1">
-        <v>42070</v>
+        <v>42071</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -2273,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="1">
-        <v>42070</v>
+        <v>42071</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="118">
   <si>
     <t>Added</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>WP+Android: Csere ajánlva: vannak gombok, h elfogad/elutasít az eladói oldalon is (nem kéne, h legyenek)</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Leírásba architektúra</t>
+  </si>
+  <si>
+    <t>A HTTP DELETE verb az olyan, mint a GET, nem pedig, mint a POST! A WCF-ben mégis POST-osan működik valamiért…</t>
+  </si>
+  <si>
+    <t>AndroidCommon modul</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -438,6 +456,10 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -741,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,28 +1477,28 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="19">
         <v>42041</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15" t="s">
+      <c r="G35" s="19"/>
+      <c r="H35" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -2171,28 +2193,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="s">
+    <row r="66" spans="2:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="19">
         <v>42070</v>
       </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14" t="s">
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15" t="s">
+      <c r="G66" s="19"/>
+      <c r="H66" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
     </row>
     <row r="67" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
@@ -2215,51 +2237,51 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
+    <row r="68" spans="2:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="19">
         <v>42071</v>
       </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14" t="s">
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15" t="s">
+      <c r="G68" s="19"/>
+      <c r="H68" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-    </row>
-    <row r="69" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+    </row>
+    <row r="69" spans="2:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="19">
         <v>42071</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14" t="s">
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="15" t="s">
+      <c r="G69" s="19"/>
+      <c r="H69" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
     </row>
     <row r="70" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
@@ -2326,12 +2348,17 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C73" s="1">
-        <v>42071</v>
-      </c>
-      <c r="H73" s="12"/>
+        <v>42073</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
@@ -2344,9 +2371,14 @@
         <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>42071</v>
-      </c>
-      <c r="H74" s="12"/>
+        <v>42075</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
@@ -2356,12 +2388,17 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1">
-        <v>42071</v>
-      </c>
-      <c r="H75" s="12"/>
+        <v>42075</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
@@ -2374,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="1">
-        <v>42071</v>
+        <v>42075</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
@@ -2385,6 +2422,12 @@
       <c r="N76" s="12"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>42075</v>
+      </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
@@ -2394,6 +2437,12 @@
       <c r="N77" s="12"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>42075</v>
+      </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
@@ -2403,6 +2452,12 @@
       <c r="N78" s="12"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>42075</v>
+      </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
@@ -2412,6 +2467,12 @@
       <c r="N79" s="12"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1">
+        <v>42075</v>
+      </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -2420,7 +2481,13 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42075</v>
+      </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -2429,7 +2496,13 @@
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1">
+        <v>42075</v>
+      </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -2438,7 +2511,13 @@
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
     </row>
-    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1">
+        <v>42075</v>
+      </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -2447,7 +2526,13 @@
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1">
+        <v>42075</v>
+      </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -2456,7 +2541,13 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
     </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1">
+        <v>42075</v>
+      </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -2465,7 +2556,13 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
     </row>
-    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1">
+        <v>42075</v>
+      </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
@@ -2474,7 +2571,13 @@
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1">
+        <v>42075</v>
+      </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
@@ -2483,7 +2586,13 @@
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
     </row>
-    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1">
+        <v>42075</v>
+      </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
@@ -2492,7 +2601,13 @@
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
     </row>
-    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1">
+        <v>42075</v>
+      </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
@@ -2501,7 +2616,13 @@
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
     </row>
-    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>42075</v>
+      </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
@@ -2510,7 +2631,13 @@
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
     </row>
-    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>42075</v>
+      </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
@@ -2519,7 +2646,7 @@
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
     </row>
-    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
@@ -2528,7 +2655,7 @@
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
     </row>
-    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -2537,7 +2664,7 @@
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
     </row>
-    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -2546,7 +2673,7 @@
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
     </row>
-    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
@@ -2555,7 +2682,7 @@
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
     </row>
-    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="126">
   <si>
     <t>Added</t>
   </si>
@@ -368,6 +368,30 @@
   </si>
   <si>
     <t>AndroidCommon modul</t>
+  </si>
+  <si>
+    <t>WCF: Ebből olyan sok van, h default-tá lehetne tenni: WrappedRequest --&gt; [WebInvoke(Method = "POST", BodyStyle = WebMessageBodyStyle.WrappedRequest)]</t>
+  </si>
+  <si>
+    <t>Ezzel megint vmi faszág van… a WCF most csak req.body-ban fogadja el az adatokat, query string-ben nem… Passz, h csak nálam van-e így, v általános; minden esetre workaround-dal lett megoldva, ahol gondot okozott</t>
+  </si>
+  <si>
+    <t>Android: Ha a felhasználó felad egy rendelést, elméletben előfordulhat hibás működés a view-ban. Lást TransactoinVM.java:116 (NOTE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB: Chrome-ban nem tudok bejelentkezni </t>
+  </si>
+  <si>
+    <t>Android: legyen-e felület, ahol a DevMode flag-eket ki-be kapcsolgathatjuk? (és elmentené ugye, permanensen)</t>
+  </si>
+  <si>
+    <t>WP: ha véglegesítem csere nélkül, ki kéne törölni a csere kosarat (finalizeOrder_WithoutExchange, finalizeOrder_DenyExchange)</t>
+  </si>
+  <si>
+    <t>BUG-2</t>
+  </si>
+  <si>
+    <t>Anti-forgery tokenes hiba</t>
   </si>
 </sst>
 </file>
@@ -763,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,25 +2390,29 @@
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1">
+    <row r="74" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="4">
         <v>42075</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="D74" s="4">
+        <v>42076</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="G74" s="4"/>
+      <c r="H74" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
+      <c r="J74" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
@@ -2406,29 +2434,46 @@
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1">
+    <row r="76" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="4">
         <v>42075</v>
       </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
+      <c r="D76" s="4">
+        <v>42076</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1">
-        <v>42075</v>
-      </c>
-      <c r="H77" s="12"/>
+        <v>42076</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42076</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
@@ -2436,72 +2481,98 @@
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+    <row r="78" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="1">
-        <v>42075</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1">
-        <v>42075</v>
-      </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1">
-        <v>42075</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="1">
-        <v>42075</v>
-      </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
+      <c r="C78" s="4">
+        <v>42076</v>
+      </c>
+      <c r="D78" s="4">
+        <v>42076</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="4">
+        <v>42077</v>
+      </c>
+      <c r="D79" s="4">
+        <v>42018</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="4">
+        <v>42077</v>
+      </c>
+      <c r="D80" s="4">
+        <v>42018</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="4">
+        <v>42077</v>
+      </c>
+      <c r="D81" s="4">
+        <v>42018</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -2516,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -2531,7 +2602,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
@@ -2546,7 +2617,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
@@ -2561,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
@@ -2576,7 +2647,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
@@ -2591,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
@@ -2606,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
@@ -2621,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
@@ -2636,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="C91" s="1">
-        <v>42075</v>
+        <v>42077</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -2647,6 +2718,9 @@
       <c r="N91" s="12"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C92" s="1">
+        <v>42077</v>
+      </c>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
@@ -2656,6 +2730,9 @@
       <c r="N92" s="12"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C93" s="1">
+        <v>42077</v>
+      </c>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -2665,6 +2742,9 @@
       <c r="N93" s="12"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C94" s="1">
+        <v>42077</v>
+      </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -2674,6 +2754,9 @@
       <c r="N94" s="12"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C95" s="1">
+        <v>42077</v>
+      </c>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
@@ -2683,6 +2766,9 @@
       <c r="N95" s="12"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C96" s="1">
+        <v>42077</v>
+      </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
@@ -2691,7 +2777,10 @@
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
     </row>
-    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C97" s="1">
+        <v>42077</v>
+      </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
@@ -2700,7 +2789,10 @@
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
     </row>
-    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="1">
+        <v>42077</v>
+      </c>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
@@ -2709,7 +2801,10 @@
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
     </row>
-    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C99" s="1">
+        <v>42077</v>
+      </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -2718,7 +2813,10 @@
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
     </row>
-    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C100" s="1">
+        <v>42077</v>
+      </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
@@ -2727,7 +2825,10 @@
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
     </row>
-    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C101" s="1">
+        <v>42077</v>
+      </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
@@ -2736,7 +2837,7 @@
       <c r="M101" s="12"/>
       <c r="N101" s="12"/>
     </row>
-    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
@@ -2745,7 +2846,7 @@
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
     </row>
-    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
@@ -2754,7 +2855,7 @@
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
     </row>
-    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
@@ -2763,7 +2864,7 @@
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
     </row>
-    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
@@ -2772,7 +2873,7 @@
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
     </row>
-    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
@@ -2781,7 +2882,7 @@
       <c r="M106" s="12"/>
       <c r="N106" s="12"/>
     </row>
-    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
@@ -2790,7 +2891,7 @@
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
     </row>
-    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
@@ -2799,7 +2900,7 @@
       <c r="M108" s="12"/>
       <c r="N108" s="12"/>
     </row>
-    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
@@ -2808,7 +2909,7 @@
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
     </row>
-    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
@@ -2817,7 +2918,7 @@
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
     </row>
-    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
@@ -2826,7 +2927,7 @@
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
     </row>
-    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BookTera" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="156">
   <si>
     <t>Added</t>
   </si>
@@ -482,6 +482,9 @@
   <si>
     <t>Ez valahogy kimaradt, és utólag kicsit sztem béne lett, ahogy beletettem; de benne van</t>
   </si>
+  <si>
+    <t>Install G.: sql server ből default instance kell, azaz "." alias, és windows authentication</t>
+  </si>
 </sst>
 </file>
 
@@ -519,18 +522,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -545,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -559,10 +556,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -870,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S961"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,28 +1368,26 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="7">
         <v>42041</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
+      <c r="D25" s="7">
+        <v>42105</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -15704,8 +15695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N900"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16053,28 +16044,26 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="7">
         <v>42085</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
+      <c r="D18" s="7">
+        <v>42104</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -16205,14 +16194,26 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+    <row r="25" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>42104</v>
+      </c>
+      <c r="D25" s="4">
+        <v>42104</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H26" s="12"/>
@@ -29271,7 +29272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N891"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -29313,28 +29314,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>42073</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="BookTera" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="157">
   <si>
     <t>Added</t>
   </si>
@@ -485,6 +485,9 @@
   <si>
     <t>Install G.: sql server ből default instance kell, azaz "." alias, és windows authentication</t>
   </si>
+  <si>
+    <t>Leteszteleni mindent, mert sok volt a NuGet package baszkurálás a System.Web.Mvc miatt! (+ Paths?)</t>
+  </si>
 </sst>
 </file>
 
@@ -863,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S961"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,8 +2579,18 @@
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
+      <c r="B80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1">
+        <v>42107</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
@@ -29272,7 +29285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N891"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="158">
   <si>
     <t>Added</t>
   </si>
@@ -488,6 +488,9 @@
   <si>
     <t>Leteszteleni mindent, mert sok volt a NuGet package baszkurálás a System.Web.Mvc miatt! (+ Paths?)</t>
   </si>
+  <si>
+    <t>WebPlay: Az ASPXAUTH süti nem HTTPOnly</t>
+  </si>
 </sst>
 </file>
 
@@ -866,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,16 +2600,28 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-    </row>
-    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="4">
+        <v>42120</v>
+      </c>
+      <c r="D81" s="4">
+        <v>42120</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -2615,7 +2630,7 @@
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
     </row>
-    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -2624,7 +2639,7 @@
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -2633,7 +2648,7 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
     </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -2642,7 +2657,7 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
     </row>
-    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
@@ -2651,7 +2666,7 @@
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
@@ -2660,7 +2675,7 @@
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
     </row>
-    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
@@ -2669,7 +2684,7 @@
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
     </row>
-    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
@@ -2678,7 +2693,7 @@
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
     </row>
-    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
@@ -2687,7 +2702,7 @@
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
     </row>
-    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
@@ -2696,7 +2711,7 @@
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
     </row>
-    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
@@ -2705,7 +2720,7 @@
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
     </row>
-    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -2714,7 +2729,7 @@
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
     </row>
-    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -2723,7 +2738,7 @@
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
     </row>
-    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
@@ -2732,7 +2747,7 @@
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
     </row>
-    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
@@ -15700,7 +15715,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BookTera" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="158">
   <si>
     <t>Added</t>
   </si>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>5</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>5</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>22</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>5</v>
       </c>
@@ -2581,24 +2581,26 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
+    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="4">
         <v>42107</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="D80" s="4">
+        <v>42125</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="G80" s="4"/>
+      <c r="H80" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
     </row>
     <row r="81" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
@@ -29300,8 +29302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N891"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29365,25 +29367,26 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>42078</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="4">
+        <v>42125</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -29406,25 +29409,26 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>42078</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="4">
+        <v>42125</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">

--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="159">
   <si>
     <t>Added</t>
   </si>
@@ -491,6 +491,9 @@
   <si>
     <t>WebPlay: Az ASPXAUTH süti nem HTTPOnly</t>
   </si>
+  <si>
+    <t>Readme-be rendes leírás (akor az Install Guidelines-ből is copy-zható szöveg)</t>
+  </si>
 </sst>
 </file>
 
@@ -548,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -562,10 +565,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -29303,7 +29302,7 @@
   <dimension ref="B2:N891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29344,28 +29343,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="7">
         <v>42073</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="7">
+        <v>42141</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -29430,48 +29427,61 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>42078</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="4">
+        <v>42141</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>42078</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="4">
+        <v>42141</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H10" s="12"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42141</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -42582,6 +42592,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Helpers/BookTera issues.xlsx
+++ b/Helpers/BookTera issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="159">
   <si>
     <t>Added</t>
   </si>
@@ -492,7 +492,7 @@
     <t>WebPlay: Az ASPXAUTH süti nem HTTPOnly</t>
   </si>
   <si>
-    <t>Readme-be rendes leírás (akor az Install Guidelines-ből is copy-zható szöveg)</t>
+    <t>Readme-be rendes leírás (akár az Install Guidelines-ből is copy-zható szöveg)</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S961"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
@@ -15724,7 +15724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N900"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -29302,7 +29302,7 @@
   <dimension ref="B2:N891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29469,25 +29469,26 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>42141</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="4">
+        <v>42143</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H11" s="12"/>
